--- a/biology/Zoologie/Dictynidae/Dictynidae.xlsx
+++ b/biology/Zoologie/Dictynidae/Dictynidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dictynidae sont une famille d'araignées aranéomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dictynidae sont une famille d'araignées aranéomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent sur tous les continents sauf aux pôles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent sur tous les continents sauf aux pôles.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des araignées très petites, ne dépassant pas 5 mm, au corps compact et très pileux. Ces espèces tissent des toiles fortement irrégulières et très adhésives dans la végétation près du sol, mais aussi entre les branches ou sur les murs. L’araignée se tient sous sa toile, mais non en position renversée.
 L'Argyronète est la seule araignée aquatique. Celle-ci vit et chasse dans des eaux dormantes. L'essentiel des autres espèces vit dans la litière des feuilles mortes.
-Avant Lehtinen 1967[2] et Cokendolpher, 2004[3], cette famille ne comprenait que des espèces cribellates, mais elle a été élargie et englobe aussi des espèces dépourvues de cribellum.
+Avant Lehtinen 1967 et Cokendolpher, 2004, cette famille ne comprenait que des espèces cribellates, mais elle a été élargie et englobe aussi des espèces dépourvues de cribellum.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est connue depuis le Crétacé[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est connue depuis le Crétacé.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 24/01/2024)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 24/01/2024) :
 Adenodictyna Ono, 2008
 Aebutina Simon, 1892
 Ajmonia Caporiacco, 1934
@@ -661,7 +681,7 @@
 Tivyna Chamberlin, 1948
 Tricholathys Chamberlin &amp; Ivie, 1935
 Viridictyna Forster, 1970
-Selon World Spider Catalog (version 23.5, 2023)[4] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Balticocryphoeca Wunderlich, 2004
 † Brommellina Wunderlich, 2004
 † Chelicirrum Wunderlich, 2004
@@ -706,10 +726,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite par O. Pickard-Cambridge en 1871.
-Cette famille rassemble 460 espèces dans 52 genres actuels[1].
+Cette famille rassemble 460 espèces dans 52 genres actuels.
 </t>
         </is>
       </c>
@@ -738,7 +760,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>O. Pickard-Cambridge, 1871 : « Arachnida. » Zoological Record, vol. 7, p. 207-224 (texte intégral).</t>
         </is>
